--- a/utility/data/造价表.xlsx
+++ b/utility/data/造价表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\114_temp\008_代码集\002_extras\smallCharpTool\utility\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89711D4-D7F5-4F0A-9422-8CF5285E569A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87C3103-A994-4C03-B942-A1F2F0D4DEBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68EA85B6-491D-435E-90AD-A6EBEA5E3C06}"/>
+    <workbookView xWindow="14025" yWindow="0" windowWidth="14790" windowHeight="15555" xr2:uid="{68EA85B6-491D-435E-90AD-A6EBEA5E3C06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1133,7 +1133,8 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <pane ySplit="25" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
